--- a/tazas_de_madera_personalizables_ES2023_01_25.xlsx
+++ b/tazas_de_madera_personalizables_ES2023_01_25.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,6 +443,222 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Personalized Bread cutting board + Bread Knife. Customized Cutting Board. High-quality stainless steel bread knife,Perfect Gift mother's day</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>https://www.etsy.com/listing/1025832745/personalized-bread-cutting-board-bread</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Spanish cómico Cafecito because adulting ta’ carbon mug gift for her funny coffee cup mug drink taza de cafe</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://www.etsy.com/listing/1199407875/spanish-comico-cafecito-because-adulting</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Personalized Coffee Mugs with Names/11oz</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>https://www.etsy.com/listing/955737630/personalized-coffee-mugs-with-names11oz</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Ixtapa &amp; Zihuatanejo, Mexico Map | Engraved Wood Coastal Chart Wall Art Sign, Beach Home Decor Nautical Print, Unique Personalized Gift</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>https://www.etsy.com/listing/984175019/ixtapa-zihuatanejo-mexico-map-engraved</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Tazas mejores amigas Png Bestfriends Mug Meme Flork Funny Digital File A veces Viboras</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>https://www.etsy.com/listing/1310606017/tazas-mejores-amigas-png-bestfriends-mug</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Mug with your 11oz custom design, photo or text / personalized gift mug / printed mug / mug with image</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>https://www.etsy.com/listing/1307990595/mug-with-your-11oz-custom-design-photo</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A personalized mug with your text, your idea</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>https://www.etsy.com/listing/266547230/a-personalized-mug-with-your-text-your</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>10</v>
+      </c>
+      <c r="D8" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Handmade Paulownia Live Bark Wood Mug - Unique Rustic Stein Mug for Beer, Cold Drinks, Smoothies, Coffee</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>https://www.etsy.com/listing/1319775938/handmade-paulownia-live-bark-wood-mug</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Engraved Groomsmen Gift, Custom Beer Mug, Personalized Wooden Beer Mug, Groomsmen Proposal, Best Man Gift Ideas, Groom Gift, Viking Style</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>https://www.etsy.com/listing/1325284265/engraved-groomsmen-gift-custom-beer-mug</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>PERSONALIZED MUGS with vinyl</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>https://www.etsy.com/listing/1221329856/personalized-mugs-with-vinyl</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>11oz Personalized Ceramic Coffee Mug White - add your own logo, text, images, artwork - caricature mug - ask more about caricature design</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>https://www.etsy.com/listing/853441479/11oz-personalized-ceramic-coffee-mug</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>15</v>
+      </c>
+      <c r="D12" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Love phrase mug, Lovers mug, love cup, Valentine's gift, personalized groom for boyfriend, bride chocolate mug</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>https://www.etsy.com/listing/1392865753/love-phrase-mug-lovers-mug-love-cup</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/tazas_de_madera_personalizables_ES2023_01_25.xlsx
+++ b/tazas_de_madera_personalizables_ES2023_01_25.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,222 +443,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Personalized Bread cutting board + Bread Knife. Customized Cutting Board. High-quality stainless steel bread knife,Perfect Gift mother's day</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>https://www.etsy.com/listing/1025832745/personalized-bread-cutting-board-bread</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Spanish cómico Cafecito because adulting ta’ carbon mug gift for her funny coffee cup mug drink taza de cafe</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>https://www.etsy.com/listing/1199407875/spanish-comico-cafecito-because-adulting</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Personalized Coffee Mugs with Names/11oz</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>https://www.etsy.com/listing/955737630/personalized-coffee-mugs-with-names11oz</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Ixtapa &amp; Zihuatanejo, Mexico Map | Engraved Wood Coastal Chart Wall Art Sign, Beach Home Decor Nautical Print, Unique Personalized Gift</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>https://www.etsy.com/listing/984175019/ixtapa-zihuatanejo-mexico-map-engraved</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Tazas mejores amigas Png Bestfriends Mug Meme Flork Funny Digital File A veces Viboras</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>https://www.etsy.com/listing/1310606017/tazas-mejores-amigas-png-bestfriends-mug</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Mug with your 11oz custom design, photo or text / personalized gift mug / printed mug / mug with image</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>https://www.etsy.com/listing/1307990595/mug-with-your-11oz-custom-design-photo</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>A personalized mug with your text, your idea</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>https://www.etsy.com/listing/266547230/a-personalized-mug-with-your-text-your</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>10</v>
-      </c>
-      <c r="D8" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Handmade Paulownia Live Bark Wood Mug - Unique Rustic Stein Mug for Beer, Cold Drinks, Smoothies, Coffee</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>https://www.etsy.com/listing/1319775938/handmade-paulownia-live-bark-wood-mug</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Engraved Groomsmen Gift, Custom Beer Mug, Personalized Wooden Beer Mug, Groomsmen Proposal, Best Man Gift Ideas, Groom Gift, Viking Style</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>https://www.etsy.com/listing/1325284265/engraved-groomsmen-gift-custom-beer-mug</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>PERSONALIZED MUGS with vinyl</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>https://www.etsy.com/listing/1221329856/personalized-mugs-with-vinyl</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>11oz Personalized Ceramic Coffee Mug White - add your own logo, text, images, artwork - caricature mug - ask more about caricature design</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>https://www.etsy.com/listing/853441479/11oz-personalized-ceramic-coffee-mug</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>15</v>
-      </c>
-      <c r="D12" t="n">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Love phrase mug, Lovers mug, love cup, Valentine's gift, personalized groom for boyfriend, bride chocolate mug</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>https://www.etsy.com/listing/1392865753/love-phrase-mug-lovers-mug-love-cup</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
